--- a/biology/Biologie cellulaire et moléculaire/EBI3/EBI3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/EBI3/EBI3.xlsx
@@ -12,128 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,109 +295,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>article_url</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>subtitle</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>article_source</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EBI3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/EBI3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène EBI3 code le gène 3 induit par le virus d'Epstein-Barr (dit EBI3), également connu sous le nom de sous-unité bêta de l'interleukine-27 ou IL-27B, qui est une protéine[5],[6].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EBI3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/EBI3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Fonction</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce gène a été identifié par l'induction de son expression dans les lymphocytes B par infection par le virus d'Epstein-Barr. La protéine codée par ce gène est une glycoprotéine sécrétée, qui est un membre de la famille des récepteurs de l'hématopoïétine liée à la sous-unité p40 de l'interleukine 12 (IL-12). Il joue un rôle dans la régulation des réponses immunitaires à médiation cellulaire[7].
-EBI3 est une sous-unité de 2 cytokines hétérodimères distinctes : l'interleukine-27 (IL27) et l'IL35. L'IL27 est composée de p28 (IL27) et d'EBI3. L'IL27 peut déclencher la signalisation dans les cellules T, les cellules B et les cellules myéloïdes[8]. L'IL35, une cytokine inhibitrice impliquée dans la fonction régulatrice des lymphocytes T, est composée d'EBI3 et de la sous-unité p35 de l'IL12[7],[9].
-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>